--- a/Assinment/Modual two/web whatsapp HLR And Test Case.xlsx
+++ b/Assinment/Modual two/web whatsapp HLR And Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Functionality name</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Test Case Id</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   <si>
     <t>1) web.whatsapp.com 2) press enter key
 3) click on need help to get started link</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,10 +515,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,31 +583,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -618,25 +618,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,25 +647,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,25 +676,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,25 +705,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
